--- a/ЗАВОДЫ/МИРАТОРГ/2025/08,25/25,08,25 Мираторг КИ Ташкент/дв 25,08,25 тшрсч мртрг ки(итого).xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/08,25/25,08,25 Мираторг КИ Ташкент/дв 25,08,25 тшрсч мртрг ки(итого).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,08,25 Мираторг КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\08,25\25,08,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C424781-2736-44B5-803C-DD27E8741B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E801FB-8189-49C2-ABB5-D5B591F66EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6116,13 +6116,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
+      <selection pane="bottomRight" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6569,7 @@
         <v>833</v>
       </c>
       <c r="AK5" s="4">
-        <f t="shared" ref="AJ5:AK5" si="2">SUM(AK6:AK499)</f>
+        <f t="shared" ref="AK5" si="2">SUM(AK6:AK499)</f>
         <v>1759.7199999999998</v>
       </c>
       <c r="AL5" s="1"/>
@@ -7065,7 +7066,7 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>2.82</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" ref="AJ7:AJ26" si="11">MROUND(G11*R11,AI11)/AI11</f>
+        <f t="shared" ref="AJ11:AJ13" si="11">MROUND(G11*R11,AI11)/AI11</f>
         <v>13</v>
       </c>
       <c r="AK11" s="1">
@@ -7534,7 +7535,7 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>46</v>
       </c>
@@ -7888,7 +7889,7 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -8111,7 +8112,7 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -8221,7 +8222,7 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>55</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>2</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" ref="AJ21:AJ26" si="17">MROUND(G22*R22,AI22)/AI22</f>
+        <f t="shared" ref="AJ22:AJ24" si="17">MROUND(G22*R22,AI22)/AI22</f>
         <v>50</v>
       </c>
       <c r="AK22" s="1">
@@ -34149,7 +34150,22 @@
       <c r="AY500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AH26" xr:uid="{70C937BD-301B-47C0-B95B-7CE41602CA6F}"/>
+  <autoFilter ref="A3:AH26" xr:uid="{70C937BD-301B-47C0-B95B-7CE41602CA6F}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="01,09,"/>
+        <filter val="100"/>
+        <filter val="200"/>
+        <filter val="300"/>
+        <filter val="500"/>
+        <filter val="600"/>
+        <filter val="6720"/>
+        <filter val="700"/>
+        <filter val="80"/>
+        <filter val="800"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
